--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_200/Tests_Estadisticos/dm_comparaciones_LSPMW_Lineal_No_Estacionario_ARIMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_200/Tests_Estadisticos/dm_comparaciones_LSPMW_Lineal_No_Estacionario_ARIMA.xlsx
@@ -438,10 +438,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>0.9688389836294036</v>
+        <v>1.006309338836623</v>
       </c>
       <c r="D2">
-        <v>0.3327650705513385</v>
+        <v>0.3252074244777317</v>
       </c>
       <c r="E2">
         <v>1.129244034718713</v>
@@ -464,10 +464,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>1.009910975683214</v>
+        <v>0.9588601731101325</v>
       </c>
       <c r="D3">
-        <v>0.3126834590272876</v>
+        <v>0.3480492644806732</v>
       </c>
       <c r="E3">
         <v>1.129244034718713</v>
@@ -490,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>0.6805895966891257</v>
+        <v>0.6707172461211615</v>
       </c>
       <c r="D4">
-        <v>0.4962250514756528</v>
+        <v>0.5093814556948959</v>
       </c>
       <c r="E4">
         <v>1.129244034718713</v>
@@ -516,10 +516,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>1.128822624808273</v>
+        <v>1.163850829661534</v>
       </c>
       <c r="D5">
-        <v>0.2591339257254224</v>
+        <v>0.2569518331732663</v>
       </c>
       <c r="E5">
         <v>1.129244034718713</v>
@@ -542,10 +542,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>-0.05986901985580911</v>
+        <v>-0.05754694408945094</v>
       </c>
       <c r="D6">
-        <v>0.9522670790246863</v>
+        <v>0.9546290025938191</v>
       </c>
       <c r="E6">
         <v>1.077664504294704</v>
@@ -568,10 +568,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>-0.4021817923459583</v>
+        <v>-0.5476907135780574</v>
       </c>
       <c r="D7">
-        <v>0.6876014333439522</v>
+        <v>0.5894183856444006</v>
       </c>
       <c r="E7">
         <v>1.077664504294704</v>
@@ -594,10 +594,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>0.06987508598422537</v>
+        <v>0.09568540198998375</v>
       </c>
       <c r="D8">
-        <v>0.9443014041300173</v>
+        <v>0.9246366887980015</v>
       </c>
       <c r="E8">
         <v>1.077664504294704</v>
@@ -620,10 +620,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>-0.3421044744821248</v>
+        <v>-0.3925403946015672</v>
       </c>
       <c r="D9">
-        <v>0.7323150862113219</v>
+        <v>0.6984363573551868</v>
       </c>
       <c r="E9">
         <v>1.080673643477815</v>
@@ -646,10 +646,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>0.127233249789245</v>
+        <v>0.1068164682965805</v>
       </c>
       <c r="D10">
-        <v>0.8987710251823107</v>
+        <v>0.9159026672173893</v>
       </c>
       <c r="E10">
         <v>1.080673643477815</v>
@@ -672,10 +672,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>0.4720649549195197</v>
+        <v>0.5142032337409187</v>
       </c>
       <c r="D11">
-        <v>0.636941770089769</v>
+        <v>0.6122367218777476</v>
       </c>
       <c r="E11">
         <v>1.096865745509916</v>
